--- a/DataFolder/bus details.xlsx
+++ b/DataFolder/bus details.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="2" documentId="11_EEC0D70618DC5C9C5D5D6C9C97590120666E770B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{623061E1-7EC8-49F4-AAA3-A5FE54AA0B7D}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-810" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -80,6 +76,10 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -349,7 +349,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="A1:H22"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/DataFolder/bus details.xlsx
+++ b/DataFolder/bus details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c06507169d2dcdd/Documents/UiPath/MiniProj_TravelBuddy/DataFolder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_EEC0D70618DC5C9C5D5D6C9C97590120666E770B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{623061E1-7EC8-49F4-AAA3-A5FE54AA0B7D}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_EEC0D70618DC5C9C5D5D6C9C97590120666E770B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CAD11BFA-8E74-412B-A371-D16E22B1A6EF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,6 +22,533 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="174">
+  <si>
+    <t>Bus Name</t>
+  </si>
+  <si>
+    <t>Bus Type</t>
+  </si>
+  <si>
+    <t>DepartureTime</t>
+  </si>
+  <si>
+    <t>ArrivalTime</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Availability</t>
+  </si>
+  <si>
+    <t>RKK Travels</t>
+  </si>
+  <si>
+    <t>AC Sleeper 2+1 Single Axle 2+1, Volvo Sleeper, AC, Non-Video</t>
+  </si>
+  <si>
+    <t>10:45 PM</t>
+  </si>
+  <si>
+    <t>05:30 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 745</t>
+  </si>
+  <si>
+    <t>25 Seats Available</t>
+  </si>
+  <si>
+    <t>AC Semi-Sleeper 2+2 Multi Axle 2+2, Multi Axle Volvo SemiSleeper, AC, Video</t>
+  </si>
+  <si>
+    <t>04:00 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 595</t>
+  </si>
+  <si>
+    <t>49 Seats Available</t>
+  </si>
+  <si>
+    <t>AC Sleeper 2+1 Multi Axle 2+1, Volvo Multi Axle Sleeper, AC, Non-Video</t>
+  </si>
+  <si>
+    <t>02:00 PM</t>
+  </si>
+  <si>
+    <t>08:45 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 795</t>
+  </si>
+  <si>
+    <t>23 Seats Available</t>
+  </si>
+  <si>
+    <t>K B S Travels</t>
+  </si>
+  <si>
+    <t>AC Sleeper 2+1 Multi Axle 2+1, Volvo Multi Axle Sleeper, AC, Individual LED</t>
+  </si>
+  <si>
+    <t>09:00 PM</t>
+  </si>
+  <si>
+    <t>03:00 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 749</t>
+  </si>
+  <si>
+    <t>30 Seats Available</t>
+  </si>
+  <si>
+    <t>IntrCity SmartBus</t>
+  </si>
+  <si>
+    <t>AC Sleeper 2+1</t>
+  </si>
+  <si>
+    <t>11:00 PM</t>
+  </si>
+  <si>
+    <t>07:15 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1,157</t>
+  </si>
+  <si>
+    <t>35 Seats Available</t>
+  </si>
+  <si>
+    <t>Pmd Travels</t>
+  </si>
+  <si>
+    <t>AC Semi-Sleeper 2+2 Multi Axle</t>
+  </si>
+  <si>
+    <t>04:15 PM</t>
+  </si>
+  <si>
+    <t>10:30 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 855</t>
+  </si>
+  <si>
+    <t>11:30 PM</t>
+  </si>
+  <si>
+    <t>05:55 AM</t>
+  </si>
+  <si>
+    <t>37 Seats Available</t>
+  </si>
+  <si>
+    <t>YBM Travels</t>
+  </si>
+  <si>
+    <t>AC Sleeper 2+1 Single Axle</t>
+  </si>
+  <si>
+    <t>04:30 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1,090</t>
+  </si>
+  <si>
+    <t>07:00 AM</t>
+  </si>
+  <si>
+    <t>01:30 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1,030</t>
+  </si>
+  <si>
+    <t>28 Seats Available</t>
+  </si>
+  <si>
+    <t>Parveen Travels</t>
+  </si>
+  <si>
+    <t>10:00 PM</t>
+  </si>
+  <si>
+    <t>45 Seats Available</t>
+  </si>
+  <si>
+    <t>12:05 PM</t>
+  </si>
+  <si>
+    <t>08:35 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1,000</t>
+  </si>
+  <si>
+    <t>AC Sleeper 2+1 With Washroom</t>
+  </si>
+  <si>
+    <t>11:55 PM</t>
+  </si>
+  <si>
+    <t>04:00 AM</t>
+  </si>
+  <si>
+    <t>09:45 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 845</t>
+  </si>
+  <si>
+    <t>06:00 AM</t>
+  </si>
+  <si>
+    <t>12:30 PM</t>
+  </si>
+  <si>
+    <t>Asian Xpress</t>
+  </si>
+  <si>
+    <t>11:15 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 850</t>
+  </si>
+  <si>
+    <t>20 Seats Available</t>
+  </si>
+  <si>
+    <t>05:25 AM</t>
+  </si>
+  <si>
+    <t>10:50 AM</t>
+  </si>
+  <si>
+    <t>43 Seats Available</t>
+  </si>
+  <si>
+    <t>AC Seater/Sleeper 2+1</t>
+  </si>
+  <si>
+    <t>11:20 PM</t>
+  </si>
+  <si>
+    <t>07:40 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1,014</t>
+  </si>
+  <si>
+    <t>39 Seats Available</t>
+  </si>
+  <si>
+    <t>04:45 PM</t>
+  </si>
+  <si>
+    <t>10:10 PM</t>
+  </si>
+  <si>
+    <t>44 Seats Available</t>
+  </si>
+  <si>
+    <t>05:35 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1,200</t>
+  </si>
+  <si>
+    <t>Bharathi Travels</t>
+  </si>
+  <si>
+    <t>AC 2+1 Multi Axle 2+1, Multi Axle Volvo, AC, Individual LED</t>
+  </si>
+  <si>
+    <t>03:30 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 550</t>
+  </si>
+  <si>
+    <t>10:55 PM</t>
+  </si>
+  <si>
+    <t>32 Seats Available</t>
+  </si>
+  <si>
+    <t>03:50 AM</t>
+  </si>
+  <si>
+    <t>09:05 AM</t>
+  </si>
+  <si>
+    <t>09:10 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 899</t>
+  </si>
+  <si>
+    <t>27 Seats Available</t>
+  </si>
+  <si>
+    <t>06:15 AM</t>
+  </si>
+  <si>
+    <t>11:55 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 695</t>
+  </si>
+  <si>
+    <t>DLTBUS</t>
+  </si>
+  <si>
+    <t>AC Sleeper 2+1 Single Axle 2+1, Brand New Gold Class Sleeper, AC, Non-Video</t>
+  </si>
+  <si>
+    <t>04:45 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1,999</t>
+  </si>
+  <si>
+    <t>21 Seats Available</t>
+  </si>
+  <si>
+    <t>02:59 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 849</t>
+  </si>
+  <si>
+    <t>AC Sleeper 2+1 Single Axle 2+1, Luxuria Sleeper, AC, Individual LED</t>
+  </si>
+  <si>
+    <t>07:00 PM</t>
+  </si>
+  <si>
+    <t>03:15 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 690</t>
+  </si>
+  <si>
+    <t>24 Seats Available</t>
+  </si>
+  <si>
+    <t>11:59 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 699</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 600</t>
+  </si>
+  <si>
+    <t>SRS Travels</t>
+  </si>
+  <si>
+    <t>Non AC Sleeper 2+1 Single Axle 2+1, Sleeper, Non-AC, Non-Video</t>
+  </si>
+  <si>
+    <t>05:00 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 499</t>
+  </si>
+  <si>
+    <t>09:55 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1,010</t>
+  </si>
+  <si>
+    <t>03:00 PM</t>
+  </si>
+  <si>
+    <t>09:45 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1,199</t>
+  </si>
+  <si>
+    <t>36 Seats Available</t>
+  </si>
+  <si>
+    <t>KGN Travels Hyderabad</t>
+  </si>
+  <si>
+    <t>Non AC Seater 1+1 Single Axle 1+1+1, Seater, Non-AC</t>
+  </si>
+  <si>
+    <t>11:45 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 400</t>
+  </si>
+  <si>
+    <t>19 Seats Available</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1,899</t>
+  </si>
+  <si>
+    <t>Green Line Travels</t>
+  </si>
+  <si>
+    <t>AC Sleeper 2+1 Single Axle 2+1, Luxuria Sleeper, AC</t>
+  </si>
+  <si>
+    <t>10:00 AM</t>
+  </si>
+  <si>
+    <t>05:30 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 999</t>
+  </si>
+  <si>
+    <t>Sea Bird Tourists</t>
+  </si>
+  <si>
+    <t>40 Seats Available</t>
+  </si>
+  <si>
+    <t>07:30 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1,300</t>
+  </si>
+  <si>
+    <t>AC Sleeper 1+2 Single Axle 1+2, Sleeper, AC, Non-Video</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 700</t>
+  </si>
+  <si>
+    <t>34 Seats Available</t>
+  </si>
+  <si>
+    <t>08:30 PM</t>
+  </si>
+  <si>
+    <t>06:45 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 990</t>
+  </si>
+  <si>
+    <t>48 Seats Available</t>
+  </si>
+  <si>
+    <t>01:00 PM</t>
+  </si>
+  <si>
+    <t>07:45 PM</t>
+  </si>
+  <si>
+    <t>AC Semi-Sleeper 2+2 Multi Axle 2+2, B11R I-Shift Volvo Multi Axle Semi Sleeper, AC, LCD</t>
+  </si>
+  <si>
+    <t>09:00 AM</t>
+  </si>
+  <si>
+    <t>03:45 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 800</t>
+  </si>
+  <si>
+    <t>42 Seats Available</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1,280</t>
+  </si>
+  <si>
+    <t>9 Seats Available</t>
+  </si>
+  <si>
+    <t>53 Seats Available</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 750</t>
+  </si>
+  <si>
+    <t>38 Seats Available</t>
+  </si>
+  <si>
+    <t>AC Semi-Sleeper 2+2 Single Axle</t>
+  </si>
+  <si>
+    <t>41 Seats Available</t>
+  </si>
+  <si>
+    <t>Orange Tours &amp; Travels</t>
+  </si>
+  <si>
+    <t>AC Sleeper CommonScreen</t>
+  </si>
+  <si>
+    <t>17 Seats Available</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1,699</t>
+  </si>
+  <si>
+    <t>AC Sleeper PersonalScreen</t>
+  </si>
+  <si>
+    <t>05:45 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1,700</t>
+  </si>
+  <si>
+    <t>15 Seats Available</t>
+  </si>
+  <si>
+    <t>OLIVE TRAVEL LINES</t>
+  </si>
+  <si>
+    <t>AC Seater/Sleeper 1+2 Single Axle 1+2, Sleeper/Seater, AC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 650</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 740</t>
+  </si>
+  <si>
+    <t>11:10 PM</t>
+  </si>
+  <si>
+    <t>06:30 AM</t>
+  </si>
+  <si>
+    <t>06:35 AM</t>
+  </si>
+  <si>
+    <t>01:15 PM</t>
+  </si>
+  <si>
+    <t>10:25 AM</t>
+  </si>
+  <si>
+    <t>06:00 PM</t>
+  </si>
+  <si>
+    <t>12:45 AM</t>
+  </si>
+  <si>
+    <t>16 Seats Available</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -55,9 +582,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -80,6 +606,10 @@
 </file>
 
 <file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -346,242 +876,1201 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="A17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="A18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="A20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="A22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="F23" s="1"/>
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="A27" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" t="s">
+        <v>96</v>
+      </c>
+      <c r="F27" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="A28" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" t="s">
+        <v>99</v>
+      </c>
+      <c r="F28" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+      <c r="A29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" t="s">
+        <v>102</v>
+      </c>
+      <c r="E29" t="s">
+        <v>103</v>
+      </c>
+      <c r="F29" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" t="s">
+        <v>106</v>
+      </c>
+      <c r="F30" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" t="s">
+        <v>107</v>
+      </c>
+      <c r="F31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>108</v>
+      </c>
+      <c r="B32" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" t="s">
+        <v>110</v>
+      </c>
+      <c r="E32" t="s">
+        <v>111</v>
+      </c>
+      <c r="F32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" t="s">
+        <v>112</v>
+      </c>
+      <c r="D33" t="s">
+        <v>110</v>
+      </c>
+      <c r="E33" t="s">
+        <v>113</v>
+      </c>
+      <c r="F33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" t="s">
+        <v>115</v>
+      </c>
+      <c r="E34" t="s">
+        <v>116</v>
+      </c>
+      <c r="F34" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>118</v>
+      </c>
+      <c r="B35" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" t="s">
+        <v>120</v>
+      </c>
+      <c r="D35" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" t="s">
+        <v>121</v>
+      </c>
+      <c r="F35" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>93</v>
+      </c>
+      <c r="B36" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" t="s">
+        <v>120</v>
+      </c>
+      <c r="D36" t="s">
+        <v>90</v>
+      </c>
+      <c r="E36" t="s">
+        <v>123</v>
+      </c>
+      <c r="F36" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>124</v>
+      </c>
+      <c r="B37" t="s">
+        <v>125</v>
+      </c>
+      <c r="C37" t="s">
+        <v>126</v>
+      </c>
+      <c r="D37" t="s">
+        <v>127</v>
+      </c>
+      <c r="E37" t="s">
+        <v>128</v>
+      </c>
+      <c r="F37" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>129</v>
+      </c>
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38" t="s">
+        <v>107</v>
+      </c>
+      <c r="F38" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>124</v>
+      </c>
+      <c r="B39" t="s">
+        <v>125</v>
+      </c>
+      <c r="C39" t="s">
+        <v>131</v>
+      </c>
+      <c r="D39" t="s">
+        <v>57</v>
+      </c>
+      <c r="E39" t="s">
+        <v>132</v>
+      </c>
+      <c r="F39" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>129</v>
+      </c>
+      <c r="B40" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" t="s">
+        <v>60</v>
+      </c>
+      <c r="E40" t="s">
+        <v>134</v>
+      </c>
+      <c r="F40" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" t="s">
+        <v>136</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" t="s">
+        <v>137</v>
+      </c>
+      <c r="D42" t="s">
+        <v>61</v>
+      </c>
+      <c r="E42" t="s">
+        <v>138</v>
+      </c>
+      <c r="F42" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>140</v>
+      </c>
+      <c r="D43" t="s">
+        <v>141</v>
+      </c>
+      <c r="E43" t="s">
+        <v>64</v>
+      </c>
+      <c r="F43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>129</v>
+      </c>
+      <c r="B44" t="s">
+        <v>142</v>
+      </c>
+      <c r="C44" t="s">
+        <v>143</v>
+      </c>
+      <c r="D44" t="s">
+        <v>144</v>
+      </c>
+      <c r="E44" t="s">
+        <v>145</v>
+      </c>
+      <c r="F44" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" t="s">
+        <v>120</v>
+      </c>
+      <c r="D45" t="s">
+        <v>60</v>
+      </c>
+      <c r="E45" t="s">
+        <v>147</v>
+      </c>
+      <c r="F45" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>79</v>
+      </c>
+      <c r="B46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46" t="s">
+        <v>143</v>
+      </c>
+      <c r="D46" t="s">
+        <v>81</v>
+      </c>
+      <c r="E46" t="s">
+        <v>134</v>
+      </c>
+      <c r="F46" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>129</v>
+      </c>
+      <c r="B47" t="s">
+        <v>142</v>
+      </c>
+      <c r="C47" t="s">
+        <v>143</v>
+      </c>
+      <c r="D47" t="s">
+        <v>144</v>
+      </c>
+      <c r="E47" t="s">
+        <v>145</v>
+      </c>
+      <c r="F47" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>129</v>
+      </c>
+      <c r="B48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" t="s">
+        <v>50</v>
+      </c>
+      <c r="E48" t="s">
+        <v>150</v>
+      </c>
+      <c r="F48" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B49" t="s">
+        <v>152</v>
+      </c>
+      <c r="C49" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" t="s">
+        <v>64</v>
+      </c>
+      <c r="F49" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>154</v>
+      </c>
+      <c r="B50" t="s">
+        <v>155</v>
+      </c>
+      <c r="C50" t="s">
+        <v>29</v>
+      </c>
+      <c r="D50" t="s">
+        <v>110</v>
+      </c>
+      <c r="E50" t="s">
+        <v>145</v>
+      </c>
+      <c r="F50" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>79</v>
+      </c>
+      <c r="B51" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" t="s">
+        <v>23</v>
+      </c>
+      <c r="D51" t="s">
+        <v>102</v>
+      </c>
+      <c r="E51" t="s">
+        <v>157</v>
+      </c>
+      <c r="F51" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>154</v>
+      </c>
+      <c r="B52" t="s">
+        <v>158</v>
+      </c>
+      <c r="C52" t="s">
+        <v>29</v>
+      </c>
+      <c r="D52" t="s">
+        <v>159</v>
+      </c>
+      <c r="E52" t="s">
+        <v>160</v>
+      </c>
+      <c r="F52" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>162</v>
+      </c>
+      <c r="B53" t="s">
+        <v>163</v>
+      </c>
+      <c r="C53" t="s">
+        <v>95</v>
+      </c>
+      <c r="D53" t="s">
+        <v>67</v>
+      </c>
+      <c r="E53" t="s">
+        <v>164</v>
+      </c>
+      <c r="F53" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54" t="s">
+        <v>42</v>
+      </c>
+      <c r="C54" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" t="s">
+        <v>165</v>
+      </c>
+      <c r="F54" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>79</v>
+      </c>
+      <c r="B55" t="s">
+        <v>100</v>
+      </c>
+      <c r="C55" t="s">
+        <v>166</v>
+      </c>
+      <c r="D55" t="s">
+        <v>167</v>
+      </c>
+      <c r="E55" t="s">
+        <v>123</v>
+      </c>
+      <c r="F55" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56" t="s">
+        <v>42</v>
+      </c>
+      <c r="C56" t="s">
+        <v>168</v>
+      </c>
+      <c r="D56" t="s">
+        <v>169</v>
+      </c>
+      <c r="E56" t="s">
+        <v>165</v>
+      </c>
+      <c r="F56" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>93</v>
+      </c>
+      <c r="B57" t="s">
+        <v>94</v>
+      </c>
+      <c r="C57" t="s">
+        <v>38</v>
+      </c>
+      <c r="D57" t="s">
+        <v>60</v>
+      </c>
+      <c r="E57" t="s">
+        <v>96</v>
+      </c>
+      <c r="F57" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" t="s">
+        <v>42</v>
+      </c>
+      <c r="C58" t="s">
+        <v>57</v>
+      </c>
+      <c r="D58" t="s">
+        <v>170</v>
+      </c>
+      <c r="E58" t="s">
+        <v>64</v>
+      </c>
+      <c r="F58" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" t="s">
+        <v>42</v>
+      </c>
+      <c r="C59" t="s">
+        <v>171</v>
+      </c>
+      <c r="D59" t="s">
+        <v>172</v>
+      </c>
+      <c r="E59" t="s">
+        <v>64</v>
+      </c>
+      <c r="F59" t="s">
+        <v>173</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
